--- a/Test Data/TC_76704_Verify Multiple PCH can be added on same backplane.xlsx
+++ b/Test Data/TC_76704_Verify Multiple PCH can be added on same backplane.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3339913-CE20-446A-A48B-16D383082C25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
     <sheet name="Add Devices_And_Reopen_Project" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -152,12 +151,15 @@
   </si>
   <si>
     <t>Other Slot Cards  (3 of 18)</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +611,7 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
@@ -723,7 +725,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -869,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB965877-47D5-4195-9320-0CA4DC7672EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_76704_Verify Multiple PCH can be added on same backplane.xlsx
+++ b/Test Data/TC_76704_Verify Multiple PCH can be added on same backplane.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3732838C-D492-41BF-815D-8443EB00EE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -150,16 +145,16 @@
     <t>NGC-2299/TC-76704</t>
   </si>
   <si>
-    <t>Other Slot Cards  (3 of 18)</t>
-  </si>
-  <si>
     <t>PCH800 5.0A</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,11 +593,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -852,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>22</v>
@@ -871,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
